--- a/output_by_subject/CS577.xlsx
+++ b/output_by_subject/CS577.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3655,6 +3655,160 @@
         </is>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>1801CS49</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>CS577</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Department Elective - IV</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>1801CS51</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>CS577</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Department Elective - IV</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>1801CS52</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>CS577</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Department Elective - IV</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>1801CS53</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>CS577</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Department Elective - IV</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2121CS05</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>CS577</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>CREDIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>1801CS55</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>CS577</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Department Elective - IV</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>1801CS68</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>CS577</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Department Elective - IV</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
